--- a/biology/Biologie cellulaire et moléculaire/Coloration_PAS/Coloration_PAS.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Coloration_PAS/Coloration_PAS.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La coloration PAS (Periodic Acid Schiff) est une coloration utilisée en histologie pour mettre en évidence les polysaccharides (types mucopolysaccharides) présents dans certains tissus conjonctifs ainsi que dans le mucus. Elle est composée d'acide periodique et de réactif de Schiff.
 Il s'agit là d'une coloration spécifique à l'inverse de l'hématoxyline-éosine-safran, par exemple.
